--- a/Map files/MajorDepression_Data.xlsx
+++ b/Map files/MajorDepression_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Hackathon2024_group7\Map files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB11C05-4855-48B9-B239-F630A2DC2DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C43EF5-09BA-446A-9A72-3F6510448323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">

--- a/Map files/MajorDepression_Data.xlsx
+++ b/Map files/MajorDepression_Data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Hackathon2024_group7\Map files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C43EF5-09BA-446A-9A72-3F6510448323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109CA53F-7A86-492C-BECB-EF0F62DB15E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Major Depression Studies" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Cohort Name</t>
   </si>
@@ -58,9 +71,6 @@
     <t>23andMe</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Taiwan Major Depressive Disorder study - Platform 1</t>
   </si>
   <si>
@@ -79,9 +89,6 @@
     <t>UK Biobank</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Army STARRS</t>
   </si>
   <si>
@@ -97,10 +104,37 @@
     <t>PGC_139k</t>
   </si>
   <si>
-    <t>Germany, Australia, Switzerland, Scotland, USA, Europe, Netherlands, UK, Ireland, Denmark, Sweden, Iceland</t>
+    <t>China</t>
   </si>
   <si>
-    <t>China</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -403,7 +437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -462,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -484,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -510,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -533,10 +567,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -559,10 +593,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -581,10 +615,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -607,10 +641,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -633,10 +667,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -659,10 +693,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -685,10 +719,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -707,13 +741,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <v>307354</v>
@@ -733,13 +767,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>361315</v>
@@ -759,35 +793,74 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
-        <v>138884</v>
+        <f xml:space="preserve"> ROUND(138884/12,0)</f>
+        <v>11574</v>
       </c>
       <c r="E14" s="4">
-        <v>43204</v>
+        <f xml:space="preserve"> ROUND(43204/12,0)</f>
+        <v>3600</v>
       </c>
       <c r="F14" s="4">
-        <v>95680</v>
+        <f>ROUND(95680/12,0)</f>
+        <v>7973</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <f xml:space="preserve"> ROUND(138884/12,0)</f>
+        <v>11574</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:E22" si="0" xml:space="preserve"> ROUND(43204/12,0)</f>
+        <v>3600</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:F22" si="1">ROUND(95680/12,0)</f>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D22" si="2" xml:space="preserve"> ROUND(138884/12,0)</f>
+        <v>11574</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -809,52 +882,172 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>11574</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>11574</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>11574</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>11574</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>11574</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>11574</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3755,12 +3948,8 @@
     <row r="998" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="5"/>
     </row>
-    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B999" s="5"/>
-    </row>
-    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1000" s="5"/>
-    </row>
+    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
